--- a/risultati_confronto.xlsx
+++ b/risultati_confronto.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Il manoscritto soffre di gravi problemi di chiarezza nella presentazione (in particolare Figura 1), di una significativa disconnessione tra il titolo (analisi di LLM) e l'esperimento principale (CIFAR-10), e di una rigorosità metodologica insufficiente dovuta alla limitazione della formazione a sole cinque epoche. Inoltre, i dati di accuratezza riportati nel testo sono contraddittori.</t>
+          <t>Il titolo e l'abstract promettono l'analisi di LLM, ma la metodologia e i risultati riguardano esclusivamente l'addestramento di CNN su CIFAR-10. Vi è una grave contraddizione interna sui risultati: la massima accuratezza riportata in Tabella 2 (~89-90%) non corrisponde al valore massimo dichiarato nel testo (80.18% in Sezione 5.2).</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Il testo è scritto in forma da articolo ma presenta problemi sostanziali per una pubblicazione scientifica standard. Mancano dettagli cruciali di metodo (nessuna descrizione formale dell’algoritmo di generazione, nessuna specifica chiara dello spazio di ricerca, nessuna tabella/figura con risultati numerici completi, nessun confronto quantitativo diretto con NAS/AutoML esistenti). L’uso di CIFAR‑10 per soli 5 epoch rende le conclusioni su “forte performance” e “stabilità” poco fondate. La connessione con LLM e “Advanced Large Language Model Analysis” è solo descrittiva e non supportata da esperimenti specifici su LLM o task di LLM analysis. Inoltre, alcune parti sembrano copiate o rielaborate da lavori esistenti (FractalNet originale) senza chiara distinzione tra contributi nuovi e noti, e ci sono incongruenze (es. nel testo si cita un best accuracy ≈89–90%, poi 80.18% come migliore configurazione). Anche la qualità formale è irregolare (inglese non sempre corretto, riferimenti alle path di file del repository dentro il corpo del paper, figure solo descritte ma non realmente presentate). In questa forma non è accettabile.</t>
+          <t>Il lavoro afferma di analizzare/abilitare LLM ma tutta la metodologia e i risultati riguardano solo CNN su CIFAR‑10; inoltre confronta FractalNet con NAS e baseline senza descrivere chiaramente i modelli di riferimento né fornire dettagli sufficienti per una valutazione scientificamente solida della superiorità dichiarata.</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Il lavoro presenta un vincolo fenomenologico coerente e originale sulla possibile violazione della statistica di Bose (simmetria per scambio di fotoni) utilizzando il limite sperimentale del decadimento $Z \rightarrow \gamma\gamma$. La metodologia, che isola l'ampiezza non simmetrica imponendo l'invarianza di gauge, è corretta, e il vincolo quantitativo ($g &lt; 10^{-2}$) è derivato correttamente dai dati LEP disponibili all'epoca.</t>
+          <t>Il metodo è logicamente e scientificamente solido. Sfrutta il teorema di Landau-Yang (che proibisce $Z \to \gamma\gamma$ assumendo Bose symmetry) per isolare e porre un limite quantitativo sul termine di ampiezza che violerebbe la simmetria di Bose.</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Il testo è un estratto fedele di un articolo scientifico già pubblicato su arXiv; è coerente, formalmente corretto, con struttura standard (introduzione, metodo, risultato, riferimenti) e senza errori concettuali evidenti nel ragionamento fisico. Eventuali refusi tipografici (spaziature, “l ooking”, “u pper”, ecc.) non ne compromettono l’accettabilità scientifica.</t>
+          <t>L’impostazione teorica (uso del teorema di Landau–Yang, costruzione dell’ampiezza più generale compatibile con Lorentz e gauge-invarianza, identificazione di un singolo parametro g e derivazione del vincolo sperimentale) è logicamente e scientificamente coerente; non emergono errori concettuali o contraddizioni interne evidenti nel ragionamento.</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Il documento si presenta come una sottomissione ad arXiv datata 7 Nov 2025, rendendolo non accettabile come testo scientifico valido e attuale. (Scientificamente, il contenuto è estremamente coerente e ben strutturato per il campo dell'anabelian geometry, ma la datazione è fittizia.)</t>
+          <t>La formula fornita per la ricostruzione del caratteristico residuo $p_D$ (Teorema 2.6, p. 9) è matematicamente inconsistente con la struttura nota del gruppo di Galois abeliano assoluto di un campo locale. Inoltre, la dimostrazione della Lemma 3.9 (p. 14) contiene gravi errori logici nella sequenza di inflazione-restrizione.</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Il testo è strutturato come un articolo di ricerca avanzato in teoria dei numeri/Galois anabeliana, con definizioni precise, teoremi enunciati correttamente, riferimenti bibliografici coerenti e una linea argomentativa chiara. Non presenta errori concettuali evidenti né mancanze strutturali gravi per uno scritto di livello arXiv; la notazione è consistente e le dipendenze logiche (soprattutto dall’articolo di Saïdi–Tamagawa e da Hoshi) sono esplicitate. Per un revisore di rivista si potrebbero suggerire solo miglioramenti minori di esposizione (alcune frasi lunghe, piccoli refusi tipografici), ma il contenuto matematico è accettabile.</t>
+          <t>Il testo è logicamente e scientificamente coerente: definizioni, lemmi e teoremi sono compatibili con la letteratura citata (Neukirch, Saïdi–Tamagawa, Hoshi), l’uso dei quozienti m‑step solvable e delle tecniche di ricostruzione (locali e globali) è metodologicamente corretto e non emergono contraddizioni interne né passaggi che richiedano risultati non giustificati.</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Il lavoro è scientificamente solido e utilizza un modello standard (spin-boson) per analizzare rigorosamente i vincoli di decoerenza su un computer quantistico con $L$ qubit. L'analisi distingue correttamente tra il regime quantistico (dominato dal vuoto) e il regime termico (dominato dalla temperatura) e dimostra che la scala temporale termica ($\hbar/k_B T$) pone un limite critico alla durata del calcolo se si vuole mantenere una scalabilità polinomiale in funzione del fattore di accoppiamento ($\epsilon$). Questo è un contributo fondamentale e tempestivo (1994) all'analisi di fattibilità dell'informatica quantistica.</t>
+          <t>Il modello utilizzato (spin-boson con accoppiamento Ohmic in un bagno termico) è standard e robusto. La conclusione logica che il tempo di calcolo sia limitato dalla scala temporale termica ($\hbar/k_B T$) deriva correttamente dalla differenza di scaling del fattore di decoerenza $J(t)$ tra il regime quantistico (logaritmico) e quello termico (lineare).</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Il testo è scientificamente solido, coerente e ben strutturato: presenta un modello fisico chiaro (spin-boson con campo scalare massless), sviluppa i calcoli in modo consistente, discute i regimi temporali (quantum vs termico) e trae conclusioni fisicamente sensate sui vincoli alla coerenza nei computer quantistici. Gli unici problemi sono refusi tipografici e impaginazione (spazi errati, sillabazioni, qualche simbolo disturbato), ma non compromettono la comprensione né la correttezza scientifica.</t>
+          <t>Il modello di decoerenza (spin-boson ohmico/superohmico/subohmico), i calcoli per J(t) e la loro estensione a L qubit e a tempi di calcolo polinomiali sono logicamente coerenti e metodologicamente corretti nelle approssimazioni dichiarate; le conclusioni sul ruolo del tempo termico e sulla perdita del vantaggio quantistico sono supportate dai passaggi matematici senza contraddizioni interne.</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Il testo presenta un'analisi coerente e matematicamente fondata della misurazione di valori "unphysical" (non-autovalori) nel contesto della meccanica quantistica, in particolare l'energia cinetica negativa in regioni classicamente proibite (tunnelling). Il lavoro è tecnicamente solido e applica correttamente il concetto di *valore debole* (weak value) su un insieme pre- e post-selezionato, dimostrando che questi valori non sono semplicemente errori casuali ma riflettono una proprietà specifica del sistema quantistico tra le due selezioni. Questo è un contributo fondamentale alla teoria delle misurazioni quantistiche (teoria AAV).</t>
+          <t>Il testo analizza l'applicazione della teoria delle misure deboli (weak values) a un ensemble pre- e post-selezionato, dimostrando la coerenza logica e matematica dell'ottenere valori cinetici negativi (non-eigenvalues) in regioni classicamente proibite. La metodologia è coerente con la teoria ABL e delle weak measurements.</t>
         </is>
       </c>
     </row>
@@ -671,14 +671,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Il testo è scientificamente coerente, ben strutturato e correttamente inserito nel contesto della letteratura sui weak measurements e weak values (Aharonov et al.). L’argomentazione è chiara: definisce il setup (pozzo di potenziale, misura impulsiva dell’energia cinetica con incertezza controllata), mostra come emergano valori “non fisici” (energia cinetica negativa) in un contesto di pre- e post-selezione, e li interpreta come weak values. Non contiene errori concettuali evidenti rispetto alla teoria standard delle weak measurements, cita adeguatamente i lavori precedenti e discute i limiti (misure non ideali, rarità degli eventi post-selezionati, assenza di violazione degli autovalori in misure ideali). Le approssimazioni tecniche (limite impulsivo, uso del pozzo delta, condizioni su x₀, δ, ε) sono standard e dichiarate; il risultato è compatibile con il formalismo di Aharonov-Albert-Vaidman.</t>
+          <t>L’argomentazione è logicamente coerente e metodologicamente standard nell’ambito dei “weak measurements”; l’uso di pre- e post-selezione, approssimazioni impulsive e analisi tramite valori deboli è internamente consistente e non contiene errori scientifici evidenti nel quadro della meccanica quantistica convenzionale.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>entanglement .pdf</t>
+          <t>entanglement.pdf</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -693,14 +693,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Il manoscritto fornisce un'analisi rigorosa e tecnicamente solida dell'entanglement a lunga distanza (LDE) e quasi a lunga distanza (QLDE) in catene di spin XX, identificando il cruciale compromesso tra la stabilità termica (gap energetico) e la robustezza dell'entanglement. L'introduzione del modello $\lambda-\mu$ propone un QLDE robusto, compatibile con realizzazioni sperimentali a temperatura finita (reticoli ottici e array di cavità accoppiate), culminando in una proposta di protocollo di teletrasporto ad alta fedeltà molto efficiente. Il lavoro è di alta qualità e di grande rilevanza per la fisica della materia condensata quantistica e l'informazione quantistica.</t>
+          <t>Il quadro teorico è coerente e supportato, in particolare l'analisi del compromesso tra l'entanglement a lungo raggio (LDE) e la stabilità termica (QLDE) basata sulla scala del gap di energia. Le implementazioni fisiche si basano su approssimazioni standard e accettate.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>entanglement .pdf</t>
+          <t>entanglement.pdf</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Il testo è un estratto fedele e coerente di un articolo scientifico pubblicato su arXiv (quant-ph/0910.0016v3). La struttura è chiara (introduzione, modello, risultati, applicazioni), le definizioni sono corrette (LDE, QLDE, mapping Jordan-Wigner, mapping a modelli di spin da Bose-Hubbard e da array di cavità), le argomentazioni sono logicamente consistenti e supportate da riferimenti adeguati. Non emergono errori concettuali evidenti né affermazioni non giustificate rispetto allo standard della letteratura. Eventuali refusi tipografici non compromettono la comprensione né la correttezza scientifica.</t>
+          <t>Il testo è logicamente e scientificamente coerente: i modelli XX sono trattati correttamente (Jordan–Wigner, diagonalizzazione, correlatori, concorrenza, frazione pienamente entangled, gap), le approssimazioni (perturbative, mapping Bose–Hubbard/CCA→spin) sono esplicitate con regimi di validità ragionevoli, e non emergono contraddizioni interne né affermazioni fisicamente infondate.</t>
         </is>
       </c>
     </row>
@@ -732,12 +732,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ACCEPTED</t>
+          <t>REJECTED</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Il lavoro presenta risultati significativi e nuovi sulla indipendenza lineare dei valori delle funzioni ipergeometriche generalizzate ($p F_q$) in un contesto multi-punto e su campi numerici algebrici arbitrari. La metodologia è altamente innovativa, in quanto offre una costruzione unificata degli approssimanti di Padé (Tipo II) che si applica in modo uniforme ai regimi di funzioni $E$, $G$ e serie di Euler ($p&lt;q+1, p=q+1, p&gt;q+1$), superando la necessità di trattamenti separati tipici della letteratura precedente. La dimostrazione della non-nullità del Wronskiano generalizzato è fondamentale per garantire le stime di zero necessarie per il contesto multi-punto. Il manoscritto è rigoroso e ben contestualizzato.</t>
+          <t>La tabella del raggio di convergenza (Sezione 2) contiene un'imprecisione scientifica: per $p &lt; q+1$ (corrispondente a $E$-functions, ovvero serie di Gevrey di ordine $\le -1$), il raggio di convergenza non-Archimedeo $r_v$ deve essere infinito, non $r_v &lt; \infty$.</t>
         </is>
       </c>
     </row>
@@ -754,12 +754,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>REJECTED</t>
+          <t>ACCEPTED</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Il testo è chiaramente un preprint di ricerca avanzata (stile arXiv) con contenuti tecnicamente solidi, ma presenta numerosi problemi formali e redazionali che lo rendono non accettabile in questa forma per una rivista scientifica:</t>
+          <t>Il testo è logicamente e scientificamente coerente: definizioni (Gevrey, arithmetiche, ipergeometriche), ipotesi (sui parametri, sui punti, sui campi), costruzione dei Padé di tipo II, uso dei Wronskiani generalizzati, distinzione dei casi p&lt;q+1, p=q+1, p&gt;q+1 e applicazione dei criteri di indipendenza (archimedei e p‑adici) sono metodologicamente corretti e compatibili con la letteratura citata, senza contraddizioni interne evidenti.</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Il testo presenta una ricerca artistico-scientifica matura e ben eseguita. L'installazione "LLMscape" affronta temi concettuali complessi (incertezza, costruzione di significato, limiti epistemici) utilizzando metodologie tecniche all'avanguardia (Generative Agents, architettura iterativa, input multimodale) e dimostra una comprovata storia espositiva. Il contributo è altamente rilevante per una traccia di AI Creativa.</t>
+          <t>Il progetto è concettualmente coerente e metodologicamente fondato sull'uso corretto di framework AI stabiliti (Generative Agents, modelli LLM avanzati), supportando l'indagine dichiarata sulle limitazioni epistemiche condivise.</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Il testo è ben strutturato, chiaro e coerente con una submission per una traccia “Creative AI”/installazione artistica: descrive contesto, ruolo dell’AI, iterazioni tecniche, feedback del pubblico e rilevanza concettuale. I riferimenti sono adeguati e l’uso di GPT-4 e framework noti (Generative Agents, Concordia, MCP) è spiegato in modo sufficiente per il tipo di contributo. Gli unici problemi sono minori (refusi come “Insitute”, qualche dettaglio tecnico solo abbozzato), ma non tali da giustificare un rifiuto.</t>
+          <t>Descrive un’installazione artistica/esperienziale, non formula ipotesi scientifiche forti né risultati quantitativi; l’uso di LLM, riferimenti bibliografici e descrizione delle iterazioni è coerente e concettualmente plausibile, senza evidenti contraddizioni o errori metodologici.</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Il lavoro presenta LORETTA, un *adversarial framework* innovativo e a basse risorse per attacchi di *poisoning* su Grafi Dinamici a Tempo Continuo (CTDG). Il metodo è superiore allo stato dell'arte (SotA) (T-SPEAR) perché è *surrogate-free* (quindi molto più efficiente, con un *speedup* fino a 10 volte) e opera sotto vincoli di conoscenza più realistici (solo accesso ai dati di training). I risultati sperimentali sono eccezionalmente robusti, dimostrando una degradazione media significativa delle performance, una chiara superiorità su 11 *baseline* e, cosa fondamentale per un attacco realistico, l'indetectability da parte di 4 sistemi SotA di *anomaly detection* e la resistenza a 4 metodi di difesa. La metodologia a due fasi (Sparsification basata su *Temporal PageRank* e *degree-preserving negative sampling*) è ben motivata e validata.</t>
+          <t>La metodologia (attacco in due fasi tramite euristiche temporali) è logicamente solida e supporta la rivendicata efficacia a basso costo. Le affermazioni di 'stealth' sono validate empiricamente (conformità C3/C4, basso AUPRC contro rilevatori di anomalie) e supportano la robustezza dimostrata contro le difese SOTA.</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Il testo è strutturato come un articolo scientifico completo (titolo, abstract, introduzione, metodologia, esperimenti, appendici), con riferimenti bibliografici coerenti, definizioni formali, analisi di complessità, dettagli sperimentali e discussione critica (limiti, anomalie nei risultati, considerazioni etiche). La qualità argomentativa e tecnica è adeguata a una conferenza/ rivista di area ML/graph learning; non emergono errori concettuali evidenti né mancanze gravi di rigore tali da renderlo inaccettabile come contributo scientifico.</t>
+          <t>Il lavoro è logicamente coerente, metodologicamente ben specificato (modello di attacco, vincoli C1–C4, complessità, setup sperimentale) e le affermazioni principali sono supportate da risultati quantitativi e analisi; non emergono contraddizioni interne o errori scientifici evidenti nel quadro teorico o sperimentale descritto.</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>L'articolo offre una trattazione teorica estremamente rigorosa e completa dei metodi per raggiungere il limite di Heisenberg (Heisenberg Limit, HL) nella misurazione di fase, risolvendo efficacemente l'ambiguità intrinseca degli stati a super-risoluzione (come gli stati NOON). La struttura, la chiarezza delle definizioni (in particolare sull'uso della varianza di Holevo e sulla quantificazione delle risorse $N$) e l'analisi dettagliata di schemi adattivi, non adattivi e ibridi ne confermano l'alta qualità scientifica. Le nuove prove analitiche (es. Teorema 1) e i risultati numerici presentati giustificano pienamente la pubblicazione come fondamento teorico per le tecniche sperimentali di metrologia quantistica.</t>
+          <t>Il testo presenta un'analisi logica e concettualmente coerente, identificando correttamente i limiti di varianza (SQL vs. HL) e il problema dell'ambiguità nella metrologia quantistica basata su stati NOON e proponendo soluzioni metodologicamente supportate.</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Il testo è un estratto fedele di un articolo arXiv (con struttura, riferimenti, formule e notazione standard), scientificamente coerente, ben argomentato e privo di errori concettuali evidenti; presenta risultati noti e propri in modo rigoroso e conforme alle convenzioni della letteratura quantistica, quindi è accettabile come testo scientifico.</t>
+          <t>Il testo è logicamente e scientificamente coerente: definisce chiaramente il concetto di risorsa N, il regime di validità del “limite di Heisenberg”, distingue correttamente tra misure canoniche e implementabili, analizza stati equivalenti e scaling della varianza con dimostrazioni consistenti e senza contraddizioni interne rispetto alla teoria standard di metrologia quantistica.</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Il lavoro è tecnicamente solido e ben motivato. Estende l'analisi della suscettibilità di fedeltà a sistemi con sottosistemi di dimensione arbitraria (RFS nel modello LMG). I risultati, che dimostrano che l'RFS tende a coincidere con la GFS nel limite termodinamico solo in prossimità del punto critico (dove la correlazione è divergente), forniscono un'importante intuizione fisica sul ruolo dell'entanglement nella risposta locale e globale del sistema. I calcoli analitici nel limite termodinamico sono supportati da simulazioni numeriche a dimensione finita.</t>
+          <t>Il testo presenta un'analisi coerente che utilizza metodi standard (approssimazione di Holstein-Primakoff) per il modello LMG. I risultati analitici che mostrano la corrispondenza degli esponenti critici tra suscettibilità globale ($\chi_g$) e ridotta ($\chi_r$) supportano logicamente la conclusione che il rapporto $\eta$ tenda a 1 al punto critico.</t>
         </is>
       </c>
     </row>
@@ -930,12 +930,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>REJECTED</t>
+          <t>ACCEPTED</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Il testo è sostanzialmente una copia quasi letterale di un articolo arXiv esistente (stesso titolo, autori, struttura, formule, figure richiamate), con solo minime differenze tipografiche. Non si tratta quindi di un contributo originale ma di riproduzione non dichiarata di lavoro altrui, configurando un problema di plagio e di mancanza di originalità scientifica.</t>
+          <t>L’impostazione teorica (LMG, trasformazione di Holstein‑Primakoff, uso della fedeltà di Uhlmann/Bures, forma quadratica della ρ_A e diagonalizzazione bosonica) è standard e coerente; le leggi di scala, il confronto χ_r vs χ_g e il legame con l’entropia di entanglement sono logicamente consistenti e in linea con la letteratura citata, senza contraddizioni metodologiche evidenti.</t>
         </is>
       </c>
     </row>
